--- a/Test cases for EMS project .xlsx
+++ b/Test cases for EMS project .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9480"/>
+    <workbookView windowWidth="17010" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="233">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -94,10 +94,25 @@
     <t>Exam Template</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>exam templete not created</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>EX-02</t>
+  </si>
+  <si>
+    <t>Verify duplicate of a new exam template.</t>
+  </si>
+  <si>
+    <t>1. Navigate to Exam Template, Click on 'duplicate Template', Fill in details and save.</t>
+  </si>
+  <si>
+    <t>showed error message</t>
+  </si>
+  <si>
+    <t>EX-03</t>
   </si>
   <si>
     <t>Verify creation of a new exam using a selected template.</t>
@@ -123,7 +138,13 @@
     <t>Exam Create</t>
   </si>
   <si>
-    <t>EX-03</t>
+    <t>Exam Created</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>EX-04</t>
   </si>
   <si>
     <t>Verify entering marks for students.</t>
@@ -149,7 +170,13 @@
     <t>Marks System</t>
   </si>
   <si>
-    <t>EX-04</t>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>EX-05</t>
   </si>
   <si>
     <t>Verify downloading of the marksheet format.</t>
@@ -174,7 +201,10 @@
     <t>Marksheet Format Download</t>
   </si>
   <si>
-    <t>EX-05</t>
+    <t>downloaded</t>
+  </si>
+  <si>
+    <t>EX-06</t>
   </si>
   <si>
     <t>Verify teacher can enter marks only for assigned subjects.</t>
@@ -200,7 +230,10 @@
     <t>Teacher Mark System</t>
   </si>
   <si>
-    <t>EX-06</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>EX-07</t>
   </si>
   <si>
     <t>Verify result processing of an exam.</t>
@@ -225,7 +258,10 @@
     <t>Result Process</t>
   </si>
   <si>
-    <t>EX-07</t>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>EX-08</t>
   </si>
   <si>
     <t>Verify listing of all processed exams.</t>
@@ -247,7 +283,10 @@
     <t>Processed Exam List</t>
   </si>
   <si>
-    <t>EX-08</t>
+    <t>showed</t>
+  </si>
+  <si>
+    <t>EX-09</t>
   </si>
   <si>
     <t>Verify archiving of a processed exam.</t>
@@ -269,6 +308,9 @@
     <t>Archived Exam List</t>
   </si>
   <si>
+    <t>nothing showed</t>
+  </si>
+  <si>
     <t>CR-01</t>
   </si>
   <si>
@@ -321,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">        Class Routine</t>
+  </si>
+  <si>
+    <t>Routine was not saved</t>
   </si>
   <si>
     <t>CR-03</t>
@@ -693,6 +738,9 @@
   </si>
   <si>
     <t>The leave config should remain in the list and not be deleted.</t>
+  </si>
+  <si>
+    <t>was not in the list</t>
   </si>
 </sst>
 </file>
@@ -705,7 +753,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -723,12 +771,6 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1229,152 +1271,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1382,12 +1424,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1864,24 +1907,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.8571428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.2857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="86.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37" style="2" customWidth="1"/>
     <col min="4" max="4" width="76.4285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="37" style="2" customWidth="1"/>
     <col min="6" max="6" width="64.1428571428571" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.8571428571429" style="2" customWidth="1"/>
     <col min="8" max="8" width="33.5714285714286" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.2857142857143" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.3809523809524" style="2" customWidth="1"/>
+    <col min="10" max="10" width="115.285714285714" style="2" customWidth="1"/>
     <col min="11" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
@@ -1922,23 +1965,23 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
@@ -1968,1031 +2011,1127 @@
       <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:12">
       <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="A12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="5"/>
+      <c r="A14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="5"/>
+      <c r="D17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="D19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="5"/>
+      <c r="I19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="5"/>
+      <c r="A20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="5"/>
+      <c r="A22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="5"/>
+      <c r="A23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="A24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="5"/>
+      <c r="H24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="9:11">
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:12">
+      <c r="A26" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="9:11">
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="5" t="s">
-        <v>175</v>
+      <c r="A28" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
-      <c r="A29" s="5" t="s">
-        <v>180</v>
+      <c r="A29" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="5" t="s">
-        <v>184</v>
+      <c r="A30" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:11">
-      <c r="A31" s="5" t="s">
-        <v>188</v>
+      <c r="A31" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:11">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="K32" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:11">
-      <c r="A33" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="F32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:11">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="5" t="s">
-        <v>198</v>
+      <c r="A34" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="K35" s="5" t="s">
-        <v>21</v>
+      <c r="F35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:11">
-      <c r="A36" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:11">
-      <c r="A37" s="5" t="s">
-        <v>207</v>
+      <c r="A37" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:11">
-      <c r="A38" s="5" t="s">
-        <v>212</v>
+      <c r="A38" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="11:11">
-      <c r="K39" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:11">
+      <c r="A39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="11:11">
+      <c r="K40" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K39">
-      <formula1>"Pass, Fail"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
